--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
   <si>
     <t>Курс</t>
   </si>
@@ -31,42 +31,39 @@
     <t>Почта</t>
   </si>
   <si>
+    <t>Был ли на мобильности ранее</t>
+  </si>
+  <si>
+    <t>Направление мобильности</t>
+  </si>
+  <si>
+    <t>Кампус</t>
+  </si>
+  <si>
+    <t>Срок</t>
+  </si>
+  <si>
     <t>Рейтинг</t>
   </si>
   <si>
-    <t>Был ли на мобильности ранее</t>
-  </si>
-  <si>
-    <t>Направление мобильности</t>
-  </si>
-  <si>
-    <t>Кампус</t>
-  </si>
-  <si>
-    <t>Срок</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>Программная инженерия</t>
   </si>
   <si>
-    <t>Пожалуйста</t>
-  </si>
-  <si>
-    <t>Заработай</t>
-  </si>
-  <si>
-    <t>Умоляю</t>
+    <t>Козлов</t>
+  </si>
+  <si>
+    <t>Егор</t>
+  </si>
+  <si>
+    <t>Дммитриевич</t>
   </si>
   <si>
     <t>sssdd@edu.hse.ru</t>
   </si>
   <si>
-    <t>7.77</t>
-  </si>
-  <si>
     <t>Нет</t>
   </si>
   <si>
@@ -76,6 +73,15 @@
     <t>4 модуля</t>
   </si>
   <si>
+    <t>Поздеева</t>
+  </si>
+  <si>
+    <t>Варвара</t>
+  </si>
+  <si>
+    <t>Алексеевна</t>
+  </si>
+  <si>
     <t>Программная инженерия (очно-заочное обучение)</t>
   </si>
   <si>
@@ -85,18 +91,15 @@
     <t>Бренёв</t>
   </si>
   <si>
-    <t>Юра</t>
-  </si>
-  <si>
-    <t>Бухалович</t>
+    <t>Юрий</t>
+  </si>
+  <si>
+    <t>Сергеевич</t>
   </si>
   <si>
     <t>brenura@edu.hse.ru</t>
   </si>
   <si>
-    <t>6.9</t>
-  </si>
-  <si>
     <t>2 модуля</t>
   </si>
   <si>
@@ -106,26 +109,89 @@
     <t>Бизнес-информатика</t>
   </si>
   <si>
-    <t>бла</t>
-  </si>
-  <si>
-    <t>бла\</t>
+    <t>Загоскин</t>
+  </si>
+  <si>
+    <t>Михаил</t>
+  </si>
+  <si>
+    <t>Андреевич</t>
   </si>
   <si>
     <t>hse@edu.hse.ru</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>Компьютерные науки и технологии</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>История</t>
+  </si>
+  <si>
+    <t>Сталин</t>
+  </si>
+  <si>
+    <t>Иосиф</t>
+  </si>
+  <si>
+    <t>Виссарионович</t>
+  </si>
+  <si>
+    <t>ussrtopchik@edu.hse.ru</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>Юриспруденция</t>
+  </si>
+  <si>
+    <t>Загоскина</t>
+  </si>
+  <si>
+    <t>Анна</t>
+  </si>
+  <si>
+    <t>Михайловна</t>
+  </si>
+  <si>
+    <t>@edu.hse.ru</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>Шайдуров</t>
+  </si>
+  <si>
+    <t>Васильеывич</t>
+  </si>
+  <si>
+    <t>Булкин</t>
+  </si>
+  <si>
+    <t>Матвей</t>
+  </si>
+  <si>
+    <t>Максимович</t>
+  </si>
+  <si>
+    <t>Битова</t>
+  </si>
+  <si>
+    <t>Людмила</t>
+  </si>
+  <si>
+    <t>Николаевна</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -142,6 +208,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -172,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -187,6 +257,21 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -404,7 +489,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="8" max="8" width="17.5"/>
+    <col customWidth="1" min="7" max="7" width="17.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -426,13 +511,13 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -465,16 +550,13 @@
         <v>17</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +567,13 @@
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>16</v>
@@ -500,16 +582,13 @@
         <v>17</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -520,67 +599,224 @@
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="J4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="B7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
